--- a/CR - Cost Report/CBOM/Fastener_cost.xlsx
+++ b/CR - Cost Report/CBOM/Fastener_cost.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Bolts" sheetId="1" r:id="rId1"/>
+    <sheet name="Nuts" sheetId="4" r:id="rId2"/>
+    <sheet name="Miscellenaous" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Bolts!$A$1:$E$1</definedName>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="29">
   <si>
     <t>Type</t>
   </si>
@@ -78,16 +80,60 @@
   </si>
   <si>
     <t>Hexagonal Head</t>
+  </si>
+  <si>
+    <t>Hook and Loop, Hook &amp; Loop Side (Velcro)</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Price (by unit)</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Quantity (to complete)</t>
+  </si>
+  <si>
+    <t>for 100</t>
+  </si>
+  <si>
+    <t>Retaining ring, external, 30 mm</t>
+  </si>
+  <si>
+    <t>Self-locking nut, nylon</t>
+  </si>
+  <si>
+    <t>K-nuts, metallic self-locking nut</t>
+  </si>
+  <si>
+    <t>K-nuts</t>
+  </si>
+  <si>
+    <t>Price (for 1)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,14 +159,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -401,7 +451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -1324,4 +1374,245 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="F2" s="1">
+        <f>D2*E2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F9" si="0">D3*E3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3.28</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="37" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2">
+        <v>13.9</v>
+      </c>
+      <c r="E2" s="3">
+        <f>C2*D2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3">
+        <f>C3*D3/100</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CR - Cost Report/CBOM/Fastener_cost.xlsx
+++ b/CR - Cost Report/CBOM/Fastener_cost.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Bolts" sheetId="1" r:id="rId1"/>
     <sheet name="Nuts" sheetId="4" r:id="rId2"/>
-    <sheet name="Miscellenaous" sheetId="2" r:id="rId3"/>
+    <sheet name="Washer" sheetId="5" r:id="rId3"/>
+    <sheet name="Miscellenaous" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Bolts!$A$1:$E$1</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="36">
   <si>
     <t>Type</t>
   </si>
@@ -115,7 +116,28 @@
     <t>K-nuts</t>
   </si>
   <si>
-    <t>Price (for 1)</t>
+    <t>Price (for 1 knut/ 100 nylstop)</t>
+  </si>
+  <si>
+    <t>Copper</t>
+  </si>
+  <si>
+    <t>Steel, stainless</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>3/8 inch</t>
+  </si>
+  <si>
+    <t>Size (mm)</t>
+  </si>
+  <si>
+    <t>11.5</t>
+  </si>
+  <si>
+    <t>12.5</t>
   </si>
 </sst>
 </file>
@@ -163,11 +185,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
@@ -1378,15 +1403,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.77734375" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -1417,11 +1443,13 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3.67</v>
+      </c>
       <c r="F2" s="1">
-        <f>D2*E2</f>
+        <f>D2*E2/100</f>
         <v>0</v>
       </c>
     </row>
@@ -1433,11 +1461,13 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3.42</v>
+      </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F9" si="0">D3*E3</f>
+        <f>D3*E3/100</f>
         <v>0</v>
       </c>
     </row>
@@ -1449,11 +1479,13 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.69</v>
+      </c>
       <c r="F4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F4:F6" si="0">D4*E4/100</f>
         <v>0</v>
       </c>
     </row>
@@ -1465,9 +1497,11 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3.7</v>
+      </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1475,16 +1509,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1">
-        <v>0.54</v>
+        <v>6.68</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
@@ -1499,13 +1533,13 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1">
-        <v>0.79</v>
+        <v>0.54</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F7:F10" si="1">D7*E7</f>
         <v>0</v>
       </c>
     </row>
@@ -1517,13 +1551,13 @@
         <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1">
-        <v>1.33</v>
+        <v>0.79</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1535,13 +1569,31 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D10" s="1">
         <v>3.28</v>
       </c>
-      <c r="F9" s="1">
-        <f t="shared" si="0"/>
+      <c r="F10" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1551,6 +1603,193 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1">
+        <v>22.5</v>
+      </c>
+      <c r="E2" s="1">
+        <f>C2*D2/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="1">
+        <v>22.5</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E6" si="0">C3*D3/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
+        <v>45</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1">
+        <v>45</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1">
+        <v>45</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2.56</v>
+      </c>
+      <c r="E7" s="1">
+        <f>C7*D7/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2.96</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" ref="E8:E11" si="1">C8*D8/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4.45</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5.65</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8.9</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>

--- a/CR - Cost Report/CBOM/Fastener_cost.xlsx
+++ b/CR - Cost Report/CBOM/Fastener_cost.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Bolts" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="55">
   <si>
     <t>Type</t>
   </si>
@@ -138,6 +138,63 @@
   </si>
   <si>
     <t>12.5</t>
+  </si>
+  <si>
+    <t>30 mm</t>
+  </si>
+  <si>
+    <t>47 mm</t>
+  </si>
+  <si>
+    <t>13 mm</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Spring, exhaust system</t>
+  </si>
+  <si>
+    <t>Spring, intake system</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for 1 </t>
+  </si>
+  <si>
+    <t>https://www.echapmoto.fr/pot-echappement-moto-ressorts-echappement-moto.html</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Reverchon</t>
+  </si>
+  <si>
+    <t>TDI</t>
+  </si>
+  <si>
+    <t>K-nut</t>
+  </si>
+  <si>
+    <t>Steel Loop Straps, Rubber-Cushioned</t>
+  </si>
+  <si>
+    <t>20 mm</t>
+  </si>
+  <si>
+    <t>for 1</t>
+  </si>
+  <si>
+    <t>Solutions Elastomères</t>
+  </si>
+  <si>
+    <t>Mount, vibration damping, Sandwich</t>
+  </si>
+  <si>
+    <t>Hose clamps</t>
   </si>
 </sst>
 </file>
@@ -185,13 +242,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1403,10 +1463,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1415,7 +1475,7 @@
     <col min="4" max="4" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1434,8 +1494,11 @@
       <c r="F1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1452,8 +1515,11 @@
         <f>D2*E2/100</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -1470,8 +1536,11 @@
         <f>D3*E3/100</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -1488,8 +1557,11 @@
         <f t="shared" ref="F4:F6" si="0">D4*E4/100</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1506,8 +1578,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1524,8 +1599,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1542,8 +1620,11 @@
         <f t="shared" ref="F7:F10" si="1">D7*E7</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1560,8 +1641,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1578,8 +1662,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1595,6 +1682,9 @@
       <c r="F10" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1604,10 +1694,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1616,7 +1706,7 @@
     <col min="3" max="3" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1632,8 +1722,11 @@
       <c r="E1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -1647,8 +1740,11 @@
         <f>C2*D2/100</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -1662,8 +1758,11 @@
         <f t="shared" ref="E3:E6" si="0">C3*D3/100</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -1677,8 +1776,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -1692,8 +1794,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1707,8 +1812,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -1722,8 +1830,11 @@
         <f>C7*D7/100</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1737,8 +1848,11 @@
         <f t="shared" ref="E8:E11" si="1">C8*D8/100</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1752,8 +1866,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -1767,8 +1884,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1781,6 +1901,9 @@
       <c r="E11" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1791,65 +1914,213 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D3" s="2">
         <v>13.9</v>
       </c>
-      <c r="E2" s="3">
-        <f>C2*D2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="F3" s="3">
+        <f>D3*E3</f>
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2">
+        <f>D4*E4</f>
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="2">
-        <v>3</v>
-      </c>
-      <c r="E3" s="3">
-        <f>C3*D3/100</f>
-        <v>0</v>
-      </c>
+      <c r="D5" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F5" s="3">
+        <f>D5*E5/100</f>
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2">
+        <v>9</v>
+      </c>
+      <c r="F6" s="3">
+        <f>D6*E6/100</f>
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="F7" s="3">
+        <f>D7*E7/100</f>
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="F8" s="3">
+        <f>D8*E8</f>
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2.08</v>
+      </c>
+      <c r="F10" s="3">
+        <f>E10*D10</f>
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CR - Cost Report/CBOM/Fastener_cost.xlsx
+++ b/CR - Cost Report/CBOM/Fastener_cost.xlsx
@@ -15,7 +15,8 @@
     <sheet name="Bolts" sheetId="1" r:id="rId1"/>
     <sheet name="Nuts" sheetId="4" r:id="rId2"/>
     <sheet name="Washer" sheetId="5" r:id="rId3"/>
-    <sheet name="Miscellenaous" sheetId="2" r:id="rId4"/>
+    <sheet name="Plumbing" sheetId="6" r:id="rId4"/>
+    <sheet name="Miscellenaous" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Bolts!$A$1:$E$1</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="58">
   <si>
     <t>Type</t>
   </si>
@@ -195,6 +196,15 @@
   </si>
   <si>
     <t>Hose clamps</t>
+  </si>
+  <si>
+    <t>ADAPTATEUR 3/ 8 -7/ 16 MALE/ MALE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADAPTATEUR 3/ 8 - 3/ 8 MALE/ MALE </t>
+  </si>
+  <si>
+    <t>Price (for 1)</t>
   </si>
 </sst>
 </file>
@@ -205,7 +215,7 @@
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,6 +229,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -242,7 +258,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -253,6 +269,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
@@ -1697,7 +1714,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1914,9 +1931,84 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="2">
+        <v>5.62</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2">
+        <f>C2*D2</f>
+        <v>11.24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="2">
+        <v>6.75</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <f>C3*D3</f>
+        <v>13.5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/CR - Cost Report/CBOM/Fastener_cost.xlsx
+++ b/CR - Cost Report/CBOM/Fastener_cost.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="65">
   <si>
     <t>Type</t>
   </si>
@@ -198,13 +198,34 @@
     <t>Hose clamps</t>
   </si>
   <si>
-    <t>ADAPTATEUR 3/ 8 -7/ 16 MALE/ MALE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADAPTATEUR 3/ 8 - 3/ 8 MALE/ MALE </t>
-  </si>
-  <si>
     <t>Price (for 1)</t>
+  </si>
+  <si>
+    <t>Fitting, weld-in, male, aluminium</t>
+  </si>
+  <si>
+    <t>Dash 6</t>
+  </si>
+  <si>
+    <t>Adapter, L.P., Male Flare, Aluminum</t>
+  </si>
+  <si>
+    <t>Adapter, L.P., Female Flare, Aluminum</t>
+  </si>
+  <si>
+    <t>Fitting, L.P., 45°, aluminium</t>
+  </si>
+  <si>
+    <t>Fitting, L.P., 90°, aluminium</t>
+  </si>
+  <si>
+    <t>Fitting, L.P., straight, aluminium</t>
+  </si>
+  <si>
+    <t>0,62 mm</t>
+  </si>
+  <si>
+    <t>Lock wire</t>
   </si>
 </sst>
 </file>
@@ -215,7 +236,7 @@
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,12 +250,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -258,7 +273,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -269,7 +284,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
@@ -1931,15 +1945,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="1" max="1" width="41.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -1950,7 +1964,7 @@
         <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
         <v>21</v>
@@ -1963,39 +1977,115 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>55</v>
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
       </c>
       <c r="C2" s="2">
-        <v>5.62</v>
+        <v>11.17</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2" s="2">
-        <f>C2*D2</f>
-        <v>11.24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>46</v>
+        <f>D2*C2</f>
+        <v>22.34</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="2">
+        <v>4.42</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E10" si="0">D3*C3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C4" s="2"/>
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C5" s="2"/>
+      <c r="E5" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C6" s="2"/>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="2">
+        <v>18.670000000000002</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="2">
+        <v>7.87</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="2">
-        <v>6.75</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2">
-        <f>C3*D3</f>
-        <v>13.5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>46</v>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3.38</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2006,10 +2096,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2071,45 +2161,43 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2">
+        <f>(7500*3.141*0.00062*0.00062*18)/0.45</f>
+        <v>0.36222012000000009</v>
+      </c>
+      <c r="F4" s="3">
         <f>D4*E4</f>
         <v>0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D5" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F5" s="3">
-        <f>D5*E5/100</f>
+        <v>3.5</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2">
+        <f>D5*E5</f>
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -2117,13 +2205,13 @@
         <v>24</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="2">
-        <v>9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F6" s="3">
         <f>D6*E6/100</f>
@@ -2138,13 +2226,13 @@
         <v>24</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="2">
-        <v>17.5</v>
+        <v>9</v>
       </c>
       <c r="F7" s="3">
         <f>D7*E7/100</f>
@@ -2156,54 +2244,72 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="D8" s="2">
-        <v>3.5</v>
+        <v>17.5</v>
       </c>
       <c r="F8" s="3">
-        <f>D8*E8</f>
+        <f>D8*E8/100</f>
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="F9" s="3">
+        <f>D9*E9</f>
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B11" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D11" s="2">
         <v>2.08</v>
       </c>
-      <c r="F10" s="3">
-        <f>E10*D10</f>
-        <v>0</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="F11" s="3">
+        <f>E11*D11</f>
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="5"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
@@ -2213,6 +2319,9 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CR - Cost Report/CBOM/Fastener_cost.xlsx
+++ b/CR - Cost Report/CBOM/Fastener_cost.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Bolts" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="71">
   <si>
     <t>Type</t>
   </si>
@@ -226,6 +226,24 @@
   </si>
   <si>
     <t>Lock wire</t>
+  </si>
+  <si>
+    <t>Fitting, plug, female</t>
+  </si>
+  <si>
+    <t>Adapter, L.P., union Tee, Male flare, Aluminium</t>
+  </si>
+  <si>
+    <t>Tie wrap</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>Large</t>
   </si>
 </sst>
 </file>
@@ -1945,10 +1963,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1984,14 +2002,17 @@
         <v>57</v>
       </c>
       <c r="C2" s="2">
-        <v>11.17</v>
+        <v>13.404</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2" s="2">
         <f>D2*C2</f>
-        <v>22.34</v>
+        <v>26.808</v>
+      </c>
+      <c r="F2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -2002,90 +2023,122 @@
         <v>57</v>
       </c>
       <c r="C3" s="2">
-        <v>4.42</v>
+        <v>5.3039999999999994</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E10" si="0">D3*C3</f>
-        <v>0</v>
+        <f t="shared" ref="E3:E9" si="0">D3*C3</f>
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C4" s="2"/>
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="2">
+        <v>15.23</v>
+      </c>
       <c r="E4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C5" s="2"/>
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="2">
+        <v>23.2</v>
+      </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="F5" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C6" s="2"/>
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="2">
+        <v>22.404</v>
+      </c>
       <c r="E6" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2">
+        <v>9.4439999999999991</v>
+      </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s">
         <v>57</v>
       </c>
       <c r="C8" s="2">
-        <v>18.670000000000002</v>
+        <v>4.056</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
         <v>57</v>
       </c>
       <c r="C9" s="2">
-        <v>7.87</v>
+        <v>3.1559999999999997</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="2">
-        <v>3.38</v>
-      </c>
-      <c r="E10" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F9" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2096,10 +2149,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2311,17 +2364,68 @@
         <v>47</v>
       </c>
     </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2.02</v>
+      </c>
+      <c r="F12" s="3">
+        <f>D12*E12/100</f>
+        <v>0</v>
+      </c>
+    </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="5"/>
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="2">
+        <v>6.13</v>
+      </c>
+      <c r="F13" s="3">
+        <f>D13*E13/100</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="5"/>
+      <c r="A14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="2">
+        <v>20.04</v>
+      </c>
+      <c r="F14" s="3">
+        <f>D14*E14/100</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" s="5"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CR - Cost Report/CBOM/Fastener_cost.xlsx
+++ b/CR - Cost Report/CBOM/Fastener_cost.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="73">
   <si>
     <t>Type</t>
   </si>
@@ -244,6 +244,12 @@
   </si>
   <si>
     <t>Large</t>
+  </si>
+  <si>
+    <t>12 mm</t>
+  </si>
+  <si>
+    <t>25 mm</t>
   </si>
 </sst>
 </file>
@@ -1966,7 +1972,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2004,12 +2010,9 @@
       <c r="C2" s="2">
         <v>13.404</v>
       </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
       <c r="E2" s="2">
         <f>D2*C2</f>
-        <v>26.808</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>46</v>
@@ -2149,10 +2152,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2190,88 +2193,95 @@
       <c r="A2" t="s">
         <v>54</v>
       </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F2" s="3">
+        <f>D2*E2</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
       </c>
       <c r="D3" s="2">
-        <v>13.9</v>
+        <v>0.63</v>
       </c>
       <c r="F3" s="3">
         <f>D3*E3</f>
         <v>0</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="2">
+        <v>13.9</v>
+      </c>
+      <c r="F4" s="3">
+        <f>D4*E4</f>
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2">
         <f>(7500*3.141*0.00062*0.00062*18)/0.45</f>
         <v>0.36222012000000009</v>
       </c>
-      <c r="F4" s="3">
-        <f>D4*E4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <f>D5*E5</f>
         <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D6" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F6" s="3">
-        <f>D6*E6/100</f>
+        <v>3.5</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2">
+        <f>D6*E6</f>
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -2279,13 +2289,13 @@
         <v>24</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="2">
-        <v>9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F7" s="3">
         <f>D7*E7/100</f>
@@ -2300,13 +2310,13 @@
         <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="2">
-        <v>17.5</v>
+        <v>9</v>
       </c>
       <c r="F8" s="3">
         <f>D8*E8/100</f>
@@ -2318,68 +2328,71 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2">
-        <v>3.5</v>
+        <v>17.5</v>
       </c>
       <c r="F9" s="3">
-        <f>D9*E9</f>
+        <f>D9*E9/100</f>
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="F10" s="3">
+        <f>D10*E10</f>
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="2">
-        <v>2.08</v>
-      </c>
-      <c r="F11" s="3">
-        <f>E11*D11</f>
-        <v>0</v>
-      </c>
-      <c r="G11" t="s">
-        <v>47</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B11" s="5"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D12" s="2">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="F12" s="3">
-        <f>D12*E12/100</f>
-        <v>0</v>
+        <f>E12*D12</f>
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -2387,13 +2400,13 @@
         <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="2">
-        <v>6.13</v>
+        <v>2.02</v>
       </c>
       <c r="F13" s="3">
         <f>D13*E13/100</f>
@@ -2405,13 +2418,13 @@
         <v>67</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="2">
-        <v>20.04</v>
+        <v>6.13</v>
       </c>
       <c r="F14" s="3">
         <f>D14*E14/100</f>
@@ -2419,13 +2432,31 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="5"/>
+      <c r="A15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="2">
+        <v>20.04</v>
+      </c>
+      <c r="F15" s="3">
+        <f>D15*E15/100</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" s="5"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="5"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CR - Cost Report/CBOM/Fastener_cost.xlsx
+++ b/CR - Cost Report/CBOM/Fastener_cost.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="76">
   <si>
     <t>Type</t>
   </si>
@@ -246,10 +246,19 @@
     <t>Large</t>
   </si>
   <si>
-    <t>12 mm</t>
-  </si>
-  <si>
-    <t>25 mm</t>
+    <t>Price (HT)</t>
+  </si>
+  <si>
+    <t>12-18 mm (diameter)</t>
+  </si>
+  <si>
+    <t>25-32 mm (diameter)</t>
+  </si>
+  <si>
+    <t>5 - 10 mm (diameter)</t>
+  </si>
+  <si>
+    <t>TDI, For sight tubes fuel system</t>
   </si>
 </sst>
 </file>
@@ -297,7 +306,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -307,6 +316,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -592,7 +604,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -608,23 +620,23 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
-        <v>10</v>
+      <c r="G1" s="5" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -644,7 +656,7 @@
         <v>4.3099999999999996</v>
       </c>
       <c r="G2" s="1">
-        <f>ROUND(E2*F2/100,2)</f>
+        <f>ROUND(E2*F2/(100*1.2),2)</f>
         <v>0</v>
       </c>
     </row>
@@ -665,7 +677,7 @@
         <v>4.46</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G43" si="0">ROUND(E3*F3/100,2)</f>
+        <f t="shared" ref="G3:G43" si="0">ROUND(E3*F3/(100*1.2),2)</f>
         <v>0</v>
       </c>
     </row>
@@ -959,7 +971,7 @@
         <v>10.65</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" ref="G17" si="1">ROUND(E17*F17/100,2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1521,7 +1533,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1534,20 +1546,20 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
-        <v>10</v>
+      <c r="F1" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="G1" t="s">
         <v>45</v>
@@ -1567,7 +1579,7 @@
         <v>3.67</v>
       </c>
       <c r="F2" s="1">
-        <f>D2*E2/100</f>
+        <f>D2*E2/(100*1.2)</f>
         <v>0</v>
       </c>
       <c r="G2" t="s">
@@ -1588,7 +1600,7 @@
         <v>3.42</v>
       </c>
       <c r="F3" s="1">
-        <f>D3*E3/100</f>
+        <f t="shared" ref="F3:F6" si="0">D3*E3/(100*1.2)</f>
         <v>0</v>
       </c>
       <c r="G3" t="s">
@@ -1609,7 +1621,7 @@
         <v>2.69</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" ref="F4:F6" si="0">D4*E4/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G4" t="s">
@@ -1672,7 +1684,7 @@
         <v>0.54</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" ref="F7:F10" si="1">D7*E7</f>
+        <f>D7*E7/1.2</f>
         <v>0</v>
       </c>
       <c r="G7" t="s">
@@ -1693,7 +1705,7 @@
         <v>0.79</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F8:F10" si="1">D8*E8/1.2</f>
         <v>0</v>
       </c>
       <c r="G8" t="s">
@@ -1752,12 +1764,12 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" customWidth="1"/>
     <col min="3" max="3" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1765,17 +1777,17 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
-        <v>10</v>
+      <c r="E1" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="F1" t="s">
         <v>45</v>
@@ -1792,7 +1804,7 @@
         <v>22.5</v>
       </c>
       <c r="E2" s="1">
-        <f>C2*D2/100</f>
+        <f>C2*D2/(100*1.2)</f>
         <v>0</v>
       </c>
       <c r="F2" t="s">
@@ -1810,7 +1822,7 @@
         <v>22.5</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E6" si="0">C3*D3/100</f>
+        <f t="shared" ref="E3:E11" si="0">C3*D3/(100*1.2)</f>
         <v>0</v>
       </c>
       <c r="F3" t="s">
@@ -1882,7 +1894,7 @@
         <v>2.56</v>
       </c>
       <c r="E7" s="1">
-        <f>C7*D7/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F7" t="s">
@@ -1900,7 +1912,7 @@
         <v>2.96</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" ref="E8:E11" si="1">C8*D8/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F8" t="s">
@@ -1918,7 +1930,7 @@
         <v>4.45</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F9" t="s">
@@ -1936,7 +1948,7 @@
         <v>5.65</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F10" t="s">
@@ -1954,7 +1966,7 @@
         <v>8.9</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F11" t="s">
@@ -1972,7 +1984,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2011,7 +2023,7 @@
         <v>13.404</v>
       </c>
       <c r="E2" s="2">
-        <f>D2*C2</f>
+        <f>D2*C2/1.2</f>
         <v>0</v>
       </c>
       <c r="F2" t="s">
@@ -2029,7 +2041,7 @@
         <v>5.3039999999999994</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E9" si="0">D3*C3</f>
+        <f t="shared" ref="E3:E9" si="0">D3*C3/1.2</f>
         <v>0</v>
       </c>
       <c r="F3" t="s">
@@ -2152,40 +2164,41 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
     <col min="4" max="4" width="14.44140625" customWidth="1"/>
     <col min="5" max="5" width="19.88671875" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="F1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2194,17 +2207,21 @@
         <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
         <v>51</v>
       </c>
       <c r="D2" s="2">
-        <v>0.56000000000000005</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="E2" s="5"/>
       <c r="F2" s="3">
-        <f>D2*E2</f>
-        <v>0</v>
+        <f>D2*E2/1.2</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -2214,95 +2231,101 @@
       <c r="B3" t="s">
         <v>72</v>
       </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
       <c r="D3" s="2">
-        <v>0.63</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F3" s="3">
-        <f>D3*E3</f>
-        <v>0</v>
+        <f>D3*E3/1.2</f>
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>39</v>
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2">
-        <v>13.9</v>
+        <v>0.63</v>
       </c>
       <c r="F4" s="3">
-        <f>D4*E4</f>
+        <f t="shared" ref="F4:F7" si="0">D4*E4/1.2</f>
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="2">
+        <v>13.9</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2">
         <f>(7500*3.141*0.00062*0.00062*18)/0.45</f>
         <v>0.36222012000000009</v>
       </c>
-      <c r="F5" s="3">
-        <f>D5*E5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2">
-        <f>D6*E6</f>
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>52</v>
+      <c r="F6" s="3">
+        <f>ROUNDUP(D6*E6/1.2,2)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D7" s="2">
-        <v>2.2000000000000002</v>
-      </c>
+        <v>3.5</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" s="3">
-        <f>D7*E7/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -2310,16 +2333,16 @@
         <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="2">
-        <v>9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F8" s="3">
-        <f>D8*E8/100</f>
+        <f>D8*E8/(100*1.2)</f>
         <v>0</v>
       </c>
       <c r="G8" t="s">
@@ -2331,16 +2354,16 @@
         <v>24</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="2">
-        <v>17.5</v>
+        <v>9</v>
       </c>
       <c r="F9" s="3">
-        <f>D9*E9/100</f>
+        <f t="shared" ref="F9:F10" si="1">D9*E9/(100*1.2)</f>
         <v>0</v>
       </c>
       <c r="G9" t="s">
@@ -2349,68 +2372,83 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="D10" s="2">
-        <v>3.5</v>
+        <v>17.5</v>
       </c>
       <c r="F10" s="3">
-        <f>D10*E10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
+      <c r="F11" s="3">
+        <f>D11*E11/1.2</f>
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
         <v>51</v>
       </c>
       <c r="D12" s="2">
-        <v>2.08</v>
+        <v>1.5</v>
       </c>
       <c r="F12" s="3">
-        <f>E12*D12</f>
-        <v>0</v>
-      </c>
-      <c r="G12" t="s">
-        <v>47</v>
+        <f>D12*E12/1.2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D13" s="2">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="F13" s="3">
-        <f>D13*E13/100</f>
-        <v>0</v>
+        <f t="shared" ref="F13:F16" si="2">D13*E13/(100*1.2)</f>
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -2418,16 +2456,16 @@
         <v>67</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="2">
-        <v>6.13</v>
+        <v>2.02</v>
       </c>
       <c r="F14" s="3">
-        <f>D14*E14/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2436,27 +2474,45 @@
         <v>67</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="2">
+        <v>6.13</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="2">
         <v>20.04</v>
       </c>
-      <c r="F15" s="3">
-        <f>D15*E15/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="5"/>
+      <c r="F16" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="5"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="5"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CR - Cost Report/CBOM/Fastener_cost.xlsx
+++ b/CR - Cost Report/CBOM/Fastener_cost.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="80">
   <si>
     <t>Type</t>
   </si>
@@ -259,6 +259,18 @@
   </si>
   <si>
     <t>TDI, For sight tubes fuel system</t>
+  </si>
+  <si>
+    <t>Quick link chain</t>
+  </si>
+  <si>
+    <t>Boot clamp, ligarex strap with buckle</t>
+  </si>
+  <si>
+    <t>Medium (33cm)</t>
+  </si>
+  <si>
+    <t>Large (72 cm)</t>
   </si>
 </sst>
 </file>
@@ -2164,10 +2176,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2179,7 +2191,7 @@
     <col min="7" max="7" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2202,249 +2214,246 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>51</v>
       </c>
       <c r="D2" s="2">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="3">
         <f>D2*E2/1.2</f>
         <v>0</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>51</v>
       </c>
       <c r="D3" s="2">
-        <v>0.56000000000000005</v>
-      </c>
+        <v>0.9</v>
+      </c>
+      <c r="E3" s="5"/>
       <c r="F3" s="3">
         <f>D3*E3/1.2</f>
         <v>0</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
         <v>51</v>
       </c>
       <c r="D4" s="2">
-        <v>0.63</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="5"/>
       <c r="F4" s="3">
-        <f t="shared" ref="F4:F7" si="0">D4*E4/1.2</f>
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>47</v>
+        <f>D4*E4/1.2</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>39</v>
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="D5" s="2">
-        <v>13.9</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" si="0"/>
+        <f>D5*E5/1.2</f>
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" ref="F6:F9" si="0">D6*E6/1.2</f>
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2">
+        <v>13.9</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B8" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D8" s="2">
         <f>(7500*3.141*0.00062*0.00062*18)/0.45</f>
         <v>0.36222012000000009</v>
       </c>
-      <c r="F6" s="3">
-        <f>ROUNDUP(D6*E6/1.2,2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="2">
-        <v>2.2000000000000002</v>
-      </c>
       <c r="F8" s="3">
-        <f>D8*E8/(100*1.2)</f>
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>47</v>
+        <f>ROUNDUP(D8*E8/1.2,2)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D9" s="2">
-        <v>9</v>
-      </c>
+        <v>3.5</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" s="3">
-        <f t="shared" ref="F9:F10" si="1">D9*E9/(100*1.2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="B10" s="5"/>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D10" s="2">
-        <v>17.5</v>
-      </c>
+        <v>5.23</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G10" t="s">
-        <v>47</v>
+        <f>D10*E10/1.2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="D11" s="2">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F11" s="3">
-        <f>D11*E11/1.2</f>
+        <f>D11*E11/(100*1.2)</f>
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="D12" s="2">
-        <v>1.5</v>
+        <v>9</v>
       </c>
       <c r="F12" s="3">
-        <f>D12*E12/1.2</f>
-        <v>0</v>
+        <f t="shared" ref="F12:F13" si="1">D12*E12/(100*1.2)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="D13" s="2">
-        <v>2.08</v>
+        <v>17.5</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" ref="F13:F16" si="2">D13*E13/(100*1.2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G13" t="s">
@@ -2453,66 +2462,126 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="D14" s="2">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="F14" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>D14*E14/1.2</f>
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D15" s="2">
-        <v>6.13</v>
+        <v>1.5</v>
       </c>
       <c r="F15" s="3">
-        <f t="shared" si="2"/>
+        <f>D15*E15/1.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2.08</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" ref="F16:F19" si="2">D16*E16/(100*1.2)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B17" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2.02</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="2">
+        <v>6.13</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C19" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D19" s="2">
         <v>20.04</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F19" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="5"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="5"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="5"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CR - Cost Report/CBOM/Fastener_cost.xlsx
+++ b/CR - Cost Report/CBOM/Fastener_cost.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="81">
   <si>
     <t>Type</t>
   </si>
@@ -271,6 +271,9 @@
   </si>
   <si>
     <t>Large (72 cm)</t>
+  </si>
+  <si>
+    <t>Tie straps, blower</t>
   </si>
 </sst>
 </file>
@@ -2179,7 +2182,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2520,7 +2523,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>67</v>
       </c>
@@ -2538,7 +2541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>67</v>
       </c>
@@ -2556,7 +2559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>67</v>
       </c>
@@ -2574,13 +2577,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>80</v>
+      </c>
       <c r="B20" s="5"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2.35</v>
+      </c>
+      <c r="F20" s="3">
+        <f>D20*E20/1.2</f>
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B21" s="5"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B22" s="5"/>
     </row>
   </sheetData>

--- a/CR - Cost Report/CBOM/Fastener_cost.xlsx
+++ b/CR - Cost Report/CBOM/Fastener_cost.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Bolts" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="81">
   <si>
     <t>Type</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Price (for 100)</t>
   </si>
   <si>
-    <t>Price</t>
-  </si>
-  <si>
     <t>Number (to calculate)</t>
   </si>
   <si>
@@ -198,9 +195,6 @@
     <t>Hose clamps</t>
   </si>
   <si>
-    <t>Price (for 1)</t>
-  </si>
-  <si>
     <t>Fitting, weld-in, male, aluminium</t>
   </si>
   <si>
@@ -274,6 +268,12 @@
   </si>
   <si>
     <t>Tie straps, blower</t>
+  </si>
+  <si>
+    <t>Fuel check valve, in-line, aluminium</t>
+  </si>
+  <si>
+    <t>Price (TTC, for 1)</t>
   </si>
 </sst>
 </file>
@@ -648,15 +648,15 @@
         <v>9</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -677,7 +677,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -698,7 +698,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -719,7 +719,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -740,7 +740,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -761,7 +761,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -782,7 +782,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -803,7 +803,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -824,7 +824,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -866,7 +866,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -908,7 +908,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -929,10 +929,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -971,10 +971,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
@@ -992,10 +992,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
@@ -1013,10 +1013,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -1034,13 +1034,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20">
         <v>20</v>
@@ -1055,13 +1055,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
@@ -1097,10 +1097,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -1118,10 +1118,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -1139,10 +1139,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -1160,10 +1160,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -1181,10 +1181,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -1202,10 +1202,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -1223,10 +1223,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -1244,10 +1244,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -1265,10 +1265,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -1286,10 +1286,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C33" t="s">
         <v>6</v>
@@ -1328,10 +1328,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C34" t="s">
         <v>6</v>
@@ -1349,10 +1349,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C35" t="s">
         <v>6</v>
@@ -1370,10 +1370,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C36" t="s">
         <v>6</v>
@@ -1391,10 +1391,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C37" t="s">
         <v>6</v>
@@ -1412,10 +1412,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C38" t="s">
         <v>6</v>
@@ -1433,10 +1433,10 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C39" t="s">
         <v>6</v>
@@ -1454,10 +1454,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C40" t="s">
         <v>6</v>
@@ -1475,10 +1475,10 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C41" t="s">
         <v>6</v>
@@ -1496,10 +1496,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C42" t="s">
         <v>6</v>
@@ -1517,10 +1517,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C43" t="s">
         <v>6</v>
@@ -1568,27 +1568,27 @@
         <v>1</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1">
         <v>3.67</v>
@@ -1598,18 +1598,18 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1">
         <v>3.42</v>
@@ -1619,15 +1619,15 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1640,15 +1640,15 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -1661,15 +1661,15 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -1682,15 +1682,15 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
         <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1703,15 +1703,15 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
         <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
@@ -1724,15 +1724,15 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
         <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -1745,15 +1745,15 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
         <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1793,24 +1793,24 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -1823,15 +1823,15 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1">
         <v>22.5</v>
@@ -1841,12 +1841,12 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -1859,15 +1859,15 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1">
         <v>45</v>
@@ -1877,15 +1877,15 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1">
         <v>45</v>
@@ -1895,15 +1895,15 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
         <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
       </c>
       <c r="C7" s="1">
         <v>2.56</v>
@@ -1913,15 +1913,15 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1">
         <v>2.96</v>
@@ -1931,12 +1931,12 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -1949,12 +1949,12 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -1967,12 +1967,12 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
@@ -1985,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1996,15 +1996,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="41.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -2012,27 +2013,27 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2">
         <v>13.404</v>
@@ -2042,33 +2043,33 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2">
         <v>5.3039999999999994</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E9" si="0">D3*C3/1.2</f>
+        <f t="shared" ref="E3:E10" si="0">D3*C3/1.2</f>
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2">
         <v>15.23</v>
@@ -2078,15 +2079,15 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C5" s="2">
         <v>23.2</v>
@@ -2096,15 +2097,15 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C6" s="2">
         <v>22.404</v>
@@ -2114,15 +2115,15 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2">
         <v>9.4439999999999991</v>
@@ -2132,15 +2133,15 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C8" s="2">
         <v>4.056</v>
@@ -2150,15 +2151,15 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C9" s="2">
         <v>3.1559999999999997</v>
@@ -2168,7 +2169,22 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="2">
+        <v>40</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2181,8 +2197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2202,30 +2218,30 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="E1" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2">
         <v>0.9</v>
@@ -2239,13 +2255,13 @@
     </row>
     <row r="3" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="C3" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2">
         <v>0.9</v>
@@ -2259,13 +2275,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2">
         <v>0.5</v>
@@ -2276,18 +2292,18 @@
         <v>0</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2">
         <v>0.56000000000000005</v>
@@ -2297,18 +2313,18 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" s="2">
         <v>0.63</v>
@@ -2318,18 +2334,18 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2">
         <v>13.9</v>
@@ -2339,18 +2355,18 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2">
         <f>(7500*3.141*0.00062*0.00062*18)/0.45</f>
@@ -2363,13 +2379,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" s="2">
         <v>3.5</v>
@@ -2380,16 +2396,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" s="2">
         <v>5.23</v>
@@ -2402,13 +2418,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2">
         <v>2.2000000000000002</v>
@@ -2418,18 +2434,18 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2">
         <v>9</v>
@@ -2439,18 +2455,18 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2">
         <v>17.5</v>
@@ -2460,18 +2476,18 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
         <v>42</v>
-      </c>
-      <c r="C14" t="s">
-        <v>43</v>
       </c>
       <c r="D14" s="2">
         <v>2</v>
@@ -2481,18 +2497,18 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" s="2">
         <v>1.5</v>
@@ -2504,13 +2520,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="C16" t="s">
         <v>50</v>
-      </c>
-      <c r="C16" t="s">
-        <v>51</v>
       </c>
       <c r="D16" s="2">
         <v>2.08</v>
@@ -2520,18 +2536,18 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>69</v>
-      </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" s="2">
         <v>2.02</v>
@@ -2543,13 +2559,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D18" s="2">
         <v>6.13</v>
@@ -2561,13 +2577,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" s="2">
         <v>20.04</v>
@@ -2579,11 +2595,11 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D20" s="2">
         <v>2.35</v>
@@ -2593,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">

--- a/CR - Cost Report/CBOM/Fastener_cost.xlsx
+++ b/CR - Cost Report/CBOM/Fastener_cost.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="83">
   <si>
     <t>Type</t>
   </si>
@@ -274,6 +274,12 @@
   </si>
   <si>
     <t>Price (TTC, for 1)</t>
+  </si>
+  <si>
+    <t>Banjo fitting, straight, Aluminium</t>
+  </si>
+  <si>
+    <t>12mm, dash6</t>
   </si>
 </sst>
 </file>
@@ -1996,15 +2002,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="41.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
     <col min="3" max="3" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2057,7 +2064,7 @@
         <v>5.3039999999999994</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E10" si="0">D3*C3/1.2</f>
+        <f t="shared" ref="E3:E11" si="0">D3*C3/1.2</f>
         <v>0</v>
       </c>
       <c r="F3" t="s">
@@ -2084,31 +2091,28 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="C5" s="2">
-        <v>23.2</v>
+        <v>31.03</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
       </c>
       <c r="C6" s="2">
-        <v>22.404</v>
+        <v>23.2</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="0"/>
@@ -2120,13 +2124,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
       </c>
       <c r="C7" s="2">
-        <v>9.4439999999999991</v>
+        <v>22.404</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
@@ -2138,13 +2142,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
       </c>
       <c r="C8" s="2">
-        <v>4.056</v>
+        <v>9.4439999999999991</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
@@ -2156,13 +2160,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
       </c>
       <c r="C9" s="2">
-        <v>3.1559999999999997</v>
+        <v>4.056</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
@@ -2174,15 +2178,33 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
         <v>55</v>
       </c>
       <c r="C10" s="2">
+        <v>3.1559999999999997</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="2">
         <v>40</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E11" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>

--- a/CR - Cost Report/CBOM/Fastener_cost.xlsx
+++ b/CR - Cost Report/CBOM/Fastener_cost.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Bolts" sheetId="1" r:id="rId1"/>
@@ -624,7 +624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -2004,7 +2004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -2220,7 +2220,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/CR - Cost Report/CBOM/Fastener_cost.xlsx
+++ b/CR - Cost Report/CBOM/Fastener_cost.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Bolts" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="84">
   <si>
     <t>Type</t>
   </si>
@@ -222,9 +222,6 @@
     <t>Lock wire</t>
   </si>
   <si>
-    <t>Fitting, plug, female</t>
-  </si>
-  <si>
     <t>Adapter, L.P., union Tee, Male flare, Aluminium</t>
   </si>
   <si>
@@ -280,6 +277,12 @@
   </si>
   <si>
     <t>12mm, dash6</t>
+  </si>
+  <si>
+    <t>Fitting, L.P, female plug, aluminium</t>
+  </si>
+  <si>
+    <t>Dash 3</t>
   </si>
 </sst>
 </file>
@@ -624,7 +627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -657,7 +660,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1580,7 +1583,7 @@
         <v>20</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G1" t="s">
         <v>44</v>
@@ -1808,7 +1811,7 @@
         <v>20</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F1" t="s">
         <v>44</v>
@@ -2002,10 +2005,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2023,13 +2026,13 @@
         <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
         <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F1" t="s">
         <v>44</v>
@@ -2064,7 +2067,7 @@
         <v>5.3039999999999994</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E11" si="0">D3*C3/1.2</f>
+        <f t="shared" ref="E3:E12" si="0">D3*C3/1.2</f>
         <v>0</v>
       </c>
       <c r="F3" t="s">
@@ -2073,7 +2076,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -2091,10 +2094,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" t="s">
         <v>81</v>
-      </c>
-      <c r="B5" t="s">
-        <v>82</v>
       </c>
       <c r="C5" s="2">
         <v>31.03</v>
@@ -2178,13 +2181,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="C10" s="2">
-        <v>3.1559999999999997</v>
+        <v>2.48</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="0"/>
@@ -2196,15 +2199,33 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B11" t="s">
         <v>55</v>
       </c>
       <c r="C11" s="2">
+        <v>3.1559999999999997</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" ref="E11" si="1">D11*C11/1.2</f>
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="2">
         <v>40</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E12" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2249,7 +2270,7 @@
         <v>21</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>44</v>
@@ -2257,10 +2278,10 @@
     </row>
     <row r="2" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>50</v>
@@ -2277,10 +2298,10 @@
     </row>
     <row r="3" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>50</v>
@@ -2300,7 +2321,7 @@
         <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
         <v>50</v>
@@ -2314,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -2322,7 +2343,7 @@
         <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
         <v>50</v>
@@ -2343,7 +2364,7 @@
         <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
         <v>50</v>
@@ -2423,7 +2444,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" t="s">
@@ -2563,10 +2584,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
         <v>22</v>
@@ -2581,10 +2602,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="C18" t="s">
         <v>22</v>
@@ -2599,10 +2620,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
         <v>22</v>
@@ -2617,7 +2638,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" t="s">

--- a/CR - Cost Report/CBOM/Fastener_cost.xlsx
+++ b/CR - Cost Report/CBOM/Fastener_cost.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Bolts" sheetId="1" r:id="rId1"/>
@@ -627,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1787,8 +1787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2007,7 +2007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -2241,7 +2241,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2329,10 +2329,12 @@
       <c r="D4" s="2">
         <v>0.5</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
       <c r="F4" s="3">
         <f>D4*E4/1.2</f>
-        <v>0</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>72</v>
@@ -2631,9 +2633,12 @@
       <c r="D19" s="2">
         <v>20.04</v>
       </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
       <c r="F19" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.66799999999999993</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">

--- a/CR - Cost Report/CBOM/Fastener_cost.xlsx
+++ b/CR - Cost Report/CBOM/Fastener_cost.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Bolts" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="85">
   <si>
     <t>Type</t>
   </si>
@@ -283,6 +283,9 @@
   </si>
   <si>
     <t>Dash 3</t>
+  </si>
+  <si>
+    <t>Adapter, L.P., union Reducer, Female flare,  Aluminium</t>
   </si>
 </sst>
 </file>
@@ -1787,7 +1790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -2005,15 +2008,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.109375" customWidth="1"/>
+    <col min="1" max="1" width="43.6640625" customWidth="1"/>
     <col min="2" max="2" width="12.109375" customWidth="1"/>
     <col min="3" max="3" width="14.88671875" customWidth="1"/>
   </cols>
@@ -2067,7 +2070,7 @@
         <v>5.3039999999999994</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E12" si="0">D3*C3/1.2</f>
+        <f t="shared" ref="E3:E13" si="0">D3*C3/1.2</f>
         <v>0</v>
       </c>
       <c r="F3" t="s">
@@ -2094,13 +2097,14 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="C5" s="2">
-        <v>31.03</v>
+        <f>1.2*2.92</f>
+        <v>3.504</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
@@ -2109,31 +2113,28 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="C6" s="2">
-        <v>23.2</v>
+        <v>31.03</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
       </c>
       <c r="C7" s="2">
-        <v>22.404</v>
+        <v>23.2</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
@@ -2145,13 +2146,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
       </c>
       <c r="C8" s="2">
-        <v>9.4439999999999991</v>
+        <v>22.404</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
@@ -2163,13 +2164,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
       </c>
       <c r="C9" s="2">
-        <v>4.056</v>
+        <v>9.4439999999999991</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
@@ -2181,13 +2182,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C10" s="2">
-        <v>2.48</v>
+        <v>4.056</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="0"/>
@@ -2202,13 +2203,13 @@
         <v>82</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="C11" s="2">
-        <v>3.1559999999999997</v>
+        <v>2.48</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" ref="E11" si="1">D11*C11/1.2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F11" t="s">
@@ -2217,15 +2218,33 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
         <v>55</v>
       </c>
       <c r="C12" s="2">
+        <v>3.1559999999999997</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" ref="E12" si="1">D12*C12/1.2</f>
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="2">
         <v>40</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E13" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>

--- a/CR - Cost Report/CBOM/Fastener_cost.xlsx
+++ b/CR - Cost Report/CBOM/Fastener_cost.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="86">
   <si>
     <t>Type</t>
   </si>
@@ -162,12 +162,6 @@
     <t xml:space="preserve">for 1 </t>
   </si>
   <si>
-    <t>https://www.echapmoto.fr/pot-echappement-moto-ressorts-echappement-moto.html</t>
-  </si>
-  <si>
-    <t>Reference</t>
-  </si>
-  <si>
     <t>Reverchon</t>
   </si>
   <si>
@@ -249,9 +243,6 @@
     <t>5 - 10 mm (diameter)</t>
   </si>
   <si>
-    <t>TDI, For sight tubes fuel system</t>
-  </si>
-  <si>
     <t>Quick link chain</t>
   </si>
   <si>
@@ -286,6 +277,18 @@
   </si>
   <si>
     <t>Adapter, L.P., union Reducer, Female flare,  Aluminium</t>
+  </si>
+  <si>
+    <t>Oreca</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>echapmoto</t>
+  </si>
+  <si>
+    <t>Forch</t>
   </si>
 </sst>
 </file>
@@ -296,7 +299,7 @@
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,6 +308,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -320,7 +331,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -328,25 +339,254 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
@@ -630,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -640,916 +880,958 @@
     <col min="3" max="3" width="13.109375" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="18.77734375" customWidth="1"/>
+    <col min="6" max="6" width="18.21875" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>68</v>
+      <c r="G1" s="24" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="11">
         <v>16</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="12">
         <v>4.3099999999999996</v>
       </c>
-      <c r="G2" s="1">
+      <c r="F2" s="11"/>
+      <c r="G2" s="13">
         <f>ROUND(E2*F2/(100*1.2),2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>20</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="3">
         <v>4.46</v>
       </c>
-      <c r="G3" s="1">
+      <c r="F3" s="2"/>
+      <c r="G3" s="5">
         <f t="shared" ref="G3:G43" si="0">ROUND(E3*F3/(100*1.2),2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>25</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="3">
         <v>4.5999999999999996</v>
       </c>
-      <c r="G4" s="1">
+      <c r="F4" s="2"/>
+      <c r="G4" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>30</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="3">
         <v>5.16</v>
       </c>
-      <c r="G5" s="1">
+      <c r="F5" s="2"/>
+      <c r="G5" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>35</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="3">
         <v>5.41</v>
       </c>
-      <c r="G6" s="1">
+      <c r="F6" s="2"/>
+      <c r="G6" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>40</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="3">
         <v>5.79</v>
       </c>
-      <c r="G7" s="1">
+      <c r="F7" s="2"/>
+      <c r="G7" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>45</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="3">
         <v>6.58</v>
       </c>
-      <c r="G8" s="1">
+      <c r="F8" s="2"/>
+      <c r="G8" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>50</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="3">
         <v>7.35</v>
       </c>
-      <c r="G9" s="1">
+      <c r="F9" s="2"/>
+      <c r="G9" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>55</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="3">
         <v>7.76</v>
       </c>
-      <c r="G10" s="1">
+      <c r="F10" s="2"/>
+      <c r="G10" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>80</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="3">
         <v>6.54</v>
       </c>
-      <c r="G11" s="1">
+      <c r="F11" s="2"/>
+      <c r="G11" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>10</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="3">
         <v>10.54</v>
       </c>
-      <c r="G12" s="1">
+      <c r="F12" s="2"/>
+      <c r="G12" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>40</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="3">
         <v>11.17</v>
       </c>
-      <c r="G13" s="1">
+      <c r="F13" s="2"/>
+      <c r="G13" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>45</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="3">
         <v>11.79</v>
       </c>
-      <c r="G14" s="1">
+      <c r="F14" s="2"/>
+      <c r="G14" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>200</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="3">
         <v>80</v>
       </c>
-      <c r="G15" s="1">
+      <c r="F15" s="2"/>
+      <c r="G15" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>180</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="3">
         <v>70</v>
       </c>
-      <c r="G16" s="1">
+      <c r="F16" s="2"/>
+      <c r="G16" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="A17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>30</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="3">
         <v>10.65</v>
       </c>
-      <c r="G17" s="1">
+      <c r="F17" s="2"/>
+      <c r="G17" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>35</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="3">
         <v>12.5</v>
       </c>
-      <c r="G18" s="1">
+      <c r="F18" s="2"/>
+      <c r="G18" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>25</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="3">
         <v>3.71</v>
       </c>
-      <c r="G19" s="1">
+      <c r="F19" s="2"/>
+      <c r="G19" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="A20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>20</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="3">
         <v>2.06</v>
       </c>
-      <c r="G20" s="1">
+      <c r="F20" s="2"/>
+      <c r="G20" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>20</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="3">
         <v>2.41</v>
       </c>
-      <c r="G21" s="1">
+      <c r="F21" s="2"/>
+      <c r="G21" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="A22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>30</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="3">
         <v>6.21</v>
       </c>
-      <c r="G22" s="1">
+      <c r="F22" s="2"/>
+      <c r="G22" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="A23" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <v>20</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="3">
         <v>2.65</v>
       </c>
-      <c r="G23" s="1">
+      <c r="F23" s="2"/>
+      <c r="G23" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="A24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2">
         <v>25</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="3">
         <v>3</v>
       </c>
-      <c r="G24" s="1">
+      <c r="F24" s="2"/>
+      <c r="G24" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="A25" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="2">
         <v>30</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="3">
         <v>3.2</v>
       </c>
-      <c r="G25" s="1">
+      <c r="F25" s="2"/>
+      <c r="G25" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="A26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="2">
         <v>40</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="3">
         <v>4.66</v>
       </c>
-      <c r="G26" s="1">
+      <c r="F26" s="2"/>
+      <c r="G26" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="A27" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="2">
         <v>50</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="3">
         <v>5.07</v>
       </c>
-      <c r="G27" s="1">
+      <c r="F27" s="2"/>
+      <c r="G27" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="A28" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="2">
         <v>20</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="3">
         <v>2.25</v>
       </c>
-      <c r="G28" s="1">
+      <c r="F28" s="2"/>
+      <c r="G28" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="A29" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="2">
         <v>30</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="3">
         <v>2.4500000000000002</v>
       </c>
-      <c r="G29" s="1">
+      <c r="F29" s="2"/>
+      <c r="G29" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="A30" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="2">
         <v>40</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="3">
         <v>2.82</v>
       </c>
-      <c r="G30" s="1">
+      <c r="F30" s="2"/>
+      <c r="G30" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="A31" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="2">
         <v>50</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="3">
         <v>3.01</v>
       </c>
-      <c r="G31" s="1">
+      <c r="F31" s="2"/>
+      <c r="G31" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="A32" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="2">
         <v>60</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="3">
         <v>3.21</v>
       </c>
-      <c r="G32" s="1">
+      <c r="F32" s="2"/>
+      <c r="G32" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="A33" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="2">
         <v>20</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="3">
         <v>3.5</v>
       </c>
-      <c r="G33" s="1">
+      <c r="F33" s="2"/>
+      <c r="G33" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="A34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="2">
         <v>30</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="3">
         <v>5.08</v>
       </c>
-      <c r="G34" s="1">
+      <c r="F34" s="2"/>
+      <c r="G34" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="A35" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="2">
         <v>40</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="3">
         <v>5.4</v>
       </c>
-      <c r="G35" s="1">
+      <c r="F35" s="2"/>
+      <c r="G35" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="A36" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B36" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="2">
         <v>50</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="3">
         <v>5.55</v>
       </c>
-      <c r="G36" s="1">
+      <c r="F36" s="2"/>
+      <c r="G36" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="A37" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B37" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="2">
         <v>60</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="3">
         <v>6.1</v>
       </c>
-      <c r="G37" s="1">
+      <c r="F37" s="2"/>
+      <c r="G37" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="A38" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B38" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="B38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="2">
         <v>20</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="3">
         <v>5.07</v>
       </c>
-      <c r="G38" s="1">
+      <c r="F38" s="2"/>
+      <c r="G38" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="A39" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="B39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="2">
         <v>25</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="3">
         <v>6.55</v>
       </c>
-      <c r="G39" s="1">
+      <c r="F39" s="2"/>
+      <c r="G39" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="A40" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B40" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="B40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="2">
         <v>30</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="3">
         <v>5.42</v>
       </c>
-      <c r="G40" s="1">
+      <c r="F40" s="2"/>
+      <c r="G40" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="A41" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B41" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="B41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="2">
         <v>40</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="3">
         <v>5.75</v>
       </c>
-      <c r="G41" s="1">
+      <c r="F41" s="2"/>
+      <c r="G41" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="A42" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B42" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="B42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="2">
         <v>50</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="3">
         <v>6.02</v>
       </c>
-      <c r="G42" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="F42" s="2"/>
+      <c r="G42" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B43" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="B43" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="7">
         <v>60</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="8">
         <v>7.05</v>
       </c>
-      <c r="G43" s="1">
+      <c r="F43" s="7"/>
+      <c r="G43" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1560,225 +1842,236 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.77734375" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.5546875" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="F1" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="12">
+        <v>3.67</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12">
+        <f>D2*E2/(100*1.2)</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="1">
-        <v>3.67</v>
-      </c>
-      <c r="F2" s="1">
-        <f>D2*E2/(100*1.2)</f>
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3">
+        <v>3.42</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3">
+        <f t="shared" ref="F3:F6" si="0">D3*E3/(100*1.2)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1">
-        <v>3.42</v>
-      </c>
-      <c r="F3" s="1">
-        <f t="shared" ref="F3:F6" si="0">D3*E3/(100*1.2)</f>
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2.69</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3">
+        <v>6.68</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="1">
-        <v>2.69</v>
-      </c>
-      <c r="F4" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D7" s="3">
+        <v>0.54</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3">
+        <f>D7*E7/1.2</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="1">
-        <v>3.7</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D8" s="3">
+        <v>0.79</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3">
+        <f t="shared" ref="F8:F10" si="1">D8*E8/1.2</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="1">
-        <v>6.68</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="D9" s="3">
+        <v>1.33</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.54</v>
-      </c>
-      <c r="F7" s="1">
-        <f>D7*E7/1.2</f>
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.79</v>
-      </c>
-      <c r="F8" s="1">
-        <f t="shared" ref="F8:F10" si="1">D8*E8/1.2</f>
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1.33</v>
-      </c>
-      <c r="F9" s="1">
+      <c r="C10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="8">
+        <v>3.28</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1">
-        <v>3.28</v>
-      </c>
-      <c r="F10" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G10" t="s">
-        <v>47</v>
+      <c r="G10" s="19" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1791,213 +2084,224 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
     <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="E1" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="11">
+        <v>8</v>
+      </c>
+      <c r="C2" s="12">
+        <v>22.5</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12">
+        <f>C2*D2/(100*1.2)</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="3">
+        <v>22.5</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3">
+        <f t="shared" ref="E3:E11" si="0">C3*D3/(100*1.2)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="2">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3">
+        <v>45</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="3">
+        <v>45</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="3">
+        <v>45</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2.56</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="18" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1">
-        <v>22.5</v>
-      </c>
-      <c r="E2" s="1">
-        <f>C2*D2/(100*1.2)</f>
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="1">
-        <v>22.5</v>
-      </c>
-      <c r="E3" s="1">
-        <f t="shared" ref="E3:E11" si="0">C3*D3/(100*1.2)</f>
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1">
-        <v>45</v>
-      </c>
-      <c r="E4" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="1">
-        <v>45</v>
-      </c>
-      <c r="E5" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1">
-        <v>45</v>
-      </c>
-      <c r="E6" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2.56</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2.96</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2.96</v>
-      </c>
-      <c r="E8" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4.45</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1">
-        <v>4.45</v>
-      </c>
-      <c r="E9" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3">
+        <v>5.65</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1">
-        <v>5.65</v>
-      </c>
-      <c r="E10" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="B11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="8">
         <v>8.9</v>
       </c>
-      <c r="E11" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F11" t="s">
-        <v>46</v>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2011,242 +2315,265 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.6640625" customWidth="1"/>
+    <col min="1" max="1" width="45.109375" customWidth="1"/>
     <col min="2" max="2" width="12.109375" customWidth="1"/>
     <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" t="s">
-        <v>44</v>
+      <c r="E1" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="2">
+      <c r="B2" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="28">
         <v>13.404</v>
       </c>
-      <c r="E2" s="2">
+      <c r="D2" s="11"/>
+      <c r="E2" s="28">
         <f>D2*C2/1.2</f>
         <v>0</v>
       </c>
-      <c r="F2" t="s">
-        <v>45</v>
+      <c r="F2" s="20" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="A3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="26">
         <v>5.3039999999999994</v>
       </c>
-      <c r="E3" s="2">
+      <c r="D3" s="2"/>
+      <c r="E3" s="26">
         <f t="shared" ref="E3:E13" si="0">D3*C3/1.2</f>
         <v>0</v>
       </c>
-      <c r="F3" t="s">
-        <v>45</v>
+      <c r="F3" s="18" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="A4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="26">
         <v>15.23</v>
       </c>
-      <c r="E4" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>45</v>
+      <c r="D4" s="2"/>
+      <c r="E4" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="A5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="26">
         <f>1.2*2.92</f>
         <v>3.504</v>
       </c>
-      <c r="E5" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D5" s="2"/>
+      <c r="E5" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="26">
+        <v>31.03</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="26">
+        <v>23.2</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="26">
+        <v>22.404</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="26">
+        <v>9.4439999999999991</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="26">
+        <v>4.056</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="2">
-        <v>31.03</v>
-      </c>
-      <c r="E6" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="2">
-        <v>23.2</v>
-      </c>
-      <c r="E7" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="2">
-        <v>22.404</v>
-      </c>
-      <c r="E8" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="2">
-        <v>9.4439999999999991</v>
-      </c>
-      <c r="E9" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="2">
-        <v>4.056</v>
-      </c>
-      <c r="E10" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="C11" s="26">
+        <v>2.48</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="B11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="2">
-        <v>2.48</v>
-      </c>
-      <c r="E11" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F11" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="26">
+        <v>3.1559999999999997</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="26">
+        <f t="shared" ref="E12" si="1">D12*C12/1.2</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="B12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="2">
-        <v>3.1559999999999997</v>
-      </c>
-      <c r="E12" s="2">
-        <f t="shared" ref="E12" si="1">D12*C12/1.2</f>
-        <v>0</v>
-      </c>
-      <c r="F12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="2">
+    </row>
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="27">
         <v>40</v>
       </c>
-      <c r="E13" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D13" s="7"/>
+      <c r="E13" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2257,10 +2584,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2269,421 +2596,443 @@
     <col min="2" max="2" width="19.44140625" customWidth="1"/>
     <col min="4" max="4" width="14.44140625" customWidth="1"/>
     <col min="5" max="5" width="19.88671875" customWidth="1"/>
-    <col min="7" max="7" width="18.44140625" customWidth="1"/>
+    <col min="7" max="7" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:7" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>44</v>
+      <c r="F1" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="A2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="28">
         <v>0.9</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="3">
+      <c r="E2" s="35"/>
+      <c r="F2" s="37">
         <f>D2*E2/1.2</f>
         <v>0</v>
       </c>
-      <c r="G2" s="5"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="A3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="26">
         <v>0.9</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="3">
+      <c r="E3" s="14"/>
+      <c r="F3" s="31">
         <f>D3*E3/1.2</f>
         <v>0</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="G3" s="32"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="A4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="26">
         <v>0.5</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="14">
         <v>1</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="31">
         <f>D4*E4/1.2</f>
         <v>0.41666666666666669</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>72</v>
+      <c r="G4" s="33" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="A5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="26">
         <v>0.56000000000000005</v>
       </c>
-      <c r="F5" s="3">
+      <c r="E5" s="2"/>
+      <c r="F5" s="31">
         <f>D5*E5/1.2</f>
         <v>0</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
+      <c r="G5" s="18" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="A6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="26">
         <v>0.63</v>
       </c>
-      <c r="F6" s="3">
+      <c r="E6" s="2"/>
+      <c r="F6" s="31">
         <f t="shared" ref="F6:F9" si="0">D6*E6/1.2</f>
         <v>0</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
+      <c r="G6" s="18" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="26">
         <v>13.9</v>
       </c>
-      <c r="F7" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>45</v>
+      <c r="E7" s="2"/>
+      <c r="F7" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="A8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="26">
         <f>(7500*3.141*0.00062*0.00062*18)/0.45</f>
         <v>0.36222012000000009</v>
       </c>
-      <c r="F8" s="3">
+      <c r="E8" s="2"/>
+      <c r="F8" s="31">
         <f>ROUNDUP(D8*E8/1.2,2)</f>
         <v>0</v>
       </c>
+      <c r="G8" s="18"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="C9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="26">
         <v>3.5</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9" t="s">
-        <v>51</v>
+      <c r="E9" s="26"/>
+      <c r="F9" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="A10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="26">
         <v>5.23</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="3">
+      <c r="E10" s="26"/>
+      <c r="F10" s="31">
         <f>D10*E10/1.2</f>
         <v>0</v>
       </c>
+      <c r="G10" s="18"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="26">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F11" s="3">
+      <c r="E11" s="2"/>
+      <c r="F11" s="31">
         <f>D11*E11/(100*1.2)</f>
         <v>0</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="26">
+        <v>9</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="31">
+        <f t="shared" ref="F12:F13" si="1">D12*E12/(100*1.2)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="26">
+        <v>17.5</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="26">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="31">
+        <f>D14*E14/1.2</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="31">
+        <f>D15*E15/1.2</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="18"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B16" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="26">
+        <v>2.08</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="31">
+        <f t="shared" ref="F16:F19" si="2">D16*E16/(100*1.2)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="2">
-        <v>9</v>
-      </c>
-      <c r="F12" s="3">
-        <f t="shared" ref="F12:F13" si="1">D12*E12/(100*1.2)</f>
-        <v>0</v>
-      </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D17" s="26">
+        <v>2.02</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="2">
-        <v>17.5</v>
-      </c>
-      <c r="F13" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="2">
-        <v>2</v>
-      </c>
-      <c r="F14" s="3">
-        <f>D14*E14/1.2</f>
-        <v>0</v>
-      </c>
-      <c r="G14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="F15" s="3">
-        <f>D15*E15/1.2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="2">
-        <v>2.08</v>
-      </c>
-      <c r="F16" s="3">
-        <f t="shared" ref="F16:F19" si="2">D16*E16/(100*1.2)</f>
-        <v>0</v>
-      </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D18" s="26">
+        <v>6.13</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="2">
-        <v>2.02</v>
-      </c>
-      <c r="F17" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="2">
-        <v>6.13</v>
-      </c>
-      <c r="F18" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="D19" s="26">
         <v>20.04</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <v>4</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="31">
         <f t="shared" si="2"/>
         <v>0.66799999999999993</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="2">
+      <c r="G19" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="34"/>
+      <c r="C20" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="27">
         <v>2.35</v>
       </c>
-      <c r="F20" s="3">
+      <c r="E20" s="7"/>
+      <c r="F20" s="39">
         <f>D20*E20/1.2</f>
         <v>0</v>
       </c>
-      <c r="G20" t="s">
-        <v>45</v>
+      <c r="G20" s="19" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="5"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="5"/>
+      <c r="B21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CR - Cost Report/CBOM/Fastener_cost.xlsx
+++ b/CR - Cost Report/CBOM/Fastener_cost.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Bolts" sheetId="1" r:id="rId1"/>
@@ -60,9 +60,6 @@
     <t>M12</t>
   </si>
   <si>
-    <t>Price (for 100)</t>
-  </si>
-  <si>
     <t>Number (to calculate)</t>
   </si>
   <si>
@@ -87,9 +84,6 @@
     <t>Unit</t>
   </si>
   <si>
-    <t>Price (by unit)</t>
-  </si>
-  <si>
     <t>m</t>
   </si>
   <si>
@@ -114,9 +108,6 @@
     <t>K-nuts</t>
   </si>
   <si>
-    <t>Price (for 1 knut/ 100 nylstop)</t>
-  </si>
-  <si>
     <t>Copper</t>
   </si>
   <si>
@@ -289,6 +280,15 @@
   </si>
   <si>
     <t>Forch</t>
+  </si>
+  <si>
+    <t>Price (TTC, for 100)</t>
+  </si>
+  <si>
+    <t>Price (TTC, for 1 knut/ 100 nylstop)</t>
+  </si>
+  <si>
+    <t>Price (TTC, by unit)</t>
   </si>
 </sst>
 </file>
@@ -518,7 +518,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -536,13 +536,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -870,46 +863,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection sqref="A1:G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="18.21875" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="23" t="s">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>66</v>
+      <c r="G1" s="21" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>3</v>
@@ -931,7 +925,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -953,7 +947,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -975,7 +969,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
@@ -997,7 +991,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>3</v>
@@ -1019,7 +1013,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>3</v>
@@ -1041,7 +1035,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>3</v>
@@ -1063,7 +1057,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>3</v>
@@ -1085,7 +1079,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>3</v>
@@ -1107,7 +1101,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>3</v>
@@ -1129,7 +1123,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>3</v>
@@ -1151,7 +1145,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>3</v>
@@ -1173,7 +1167,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>3</v>
@@ -1195,10 +1189,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>8</v>
@@ -1217,10 +1211,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>8</v>
@@ -1239,10 +1233,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>7</v>
@@ -1261,10 +1255,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>7</v>
@@ -1283,10 +1277,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>5</v>
@@ -1305,13 +1299,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20" s="2">
         <v>20</v>
@@ -1327,13 +1321,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21" s="2">
         <v>20</v>
@@ -1349,10 +1343,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>6</v>
@@ -1371,10 +1365,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>5</v>
@@ -1393,10 +1387,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>5</v>
@@ -1415,10 +1409,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>5</v>
@@ -1437,10 +1431,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>5</v>
@@ -1459,10 +1453,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>5</v>
@@ -1481,10 +1475,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>5</v>
@@ -1503,10 +1497,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>5</v>
@@ -1525,10 +1519,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>5</v>
@@ -1547,10 +1541,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>5</v>
@@ -1569,10 +1563,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>5</v>
@@ -1591,10 +1585,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>6</v>
@@ -1613,10 +1607,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>6</v>
@@ -1635,10 +1629,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>6</v>
@@ -1657,10 +1651,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>6</v>
@@ -1679,10 +1673,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>6</v>
@@ -1701,10 +1695,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>6</v>
@@ -1723,10 +1717,10 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>6</v>
@@ -1745,10 +1739,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>6</v>
@@ -1767,10 +1761,10 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>6</v>
@@ -1789,10 +1783,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>6</v>
@@ -1811,10 +1805,10 @@
     </row>
     <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>6</v>
@@ -1842,49 +1836,49 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="G10" sqref="A1:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.77734375" customWidth="1"/>
     <col min="3" max="3" width="7.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.5546875" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" customWidth="1"/>
     <col min="5" max="5" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="23" t="s">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>83</v>
+      <c r="D1" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D2" s="12">
         <v>3.67</v>
@@ -1894,19 +1888,19 @@
         <f>D2*E2/(100*1.2)</f>
         <v>0</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>44</v>
+      <c r="G2" s="17" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="3">
         <v>3.42</v>
@@ -1916,16 +1910,16 @@
         <f t="shared" ref="F3:F6" si="0">D3*E3/(100*1.2)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="18" t="s">
-        <v>44</v>
+      <c r="G3" s="15" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
@@ -1938,16 +1932,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G4" s="18" t="s">
-        <v>44</v>
+      <c r="G4" s="15" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
@@ -1960,16 +1954,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="18" t="s">
-        <v>44</v>
+      <c r="G5" s="15" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
@@ -1982,16 +1976,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="18" t="s">
-        <v>44</v>
+      <c r="G6" s="15" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>5</v>
@@ -2004,16 +1998,16 @@
         <f>D7*E7/1.2</f>
         <v>0</v>
       </c>
-      <c r="G7" s="18" t="s">
-        <v>45</v>
+      <c r="G7" s="15" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>6</v>
@@ -2026,16 +2020,16 @@
         <f t="shared" ref="F8:F10" si="1">D8*E8/1.2</f>
         <v>0</v>
       </c>
-      <c r="G8" s="18" t="s">
-        <v>45</v>
+      <c r="G8" s="15" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>7</v>
@@ -2048,16 +2042,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G9" s="18" t="s">
-        <v>45</v>
+      <c r="G9" s="15" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>8</v>
@@ -2070,8 +2064,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G10" s="19" t="s">
-        <v>45</v>
+      <c r="G10" s="16" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2084,39 +2078,39 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="F11" sqref="A1:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
     <col min="4" max="4" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="25" t="s">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>83</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B2" s="11">
         <v>8</v>
@@ -2129,16 +2123,16 @@
         <f>C2*D2/(100*1.2)</f>
         <v>0</v>
       </c>
-      <c r="F2" s="20" t="s">
-        <v>43</v>
+      <c r="F2" s="17" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>28</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>31</v>
       </c>
       <c r="C3" s="3">
         <v>22.5</v>
@@ -2148,13 +2142,13 @@
         <f t="shared" ref="E3:E11" si="0">C3*D3/(100*1.2)</f>
         <v>0</v>
       </c>
-      <c r="F3" s="18" t="s">
-        <v>43</v>
+      <c r="F3" s="17" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2">
         <v>10</v>
@@ -2167,16 +2161,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F4" s="18" t="s">
-        <v>43</v>
+      <c r="F4" s="17" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>33</v>
+        <v>25</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>30</v>
       </c>
       <c r="C5" s="3">
         <v>45</v>
@@ -2186,16 +2180,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F5" s="18" t="s">
-        <v>43</v>
+      <c r="F5" s="17" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>34</v>
+        <v>25</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="C6" s="3">
         <v>45</v>
@@ -2205,16 +2199,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6" s="18" t="s">
-        <v>43</v>
+      <c r="F6" s="17" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C7" s="3">
         <v>2.56</v>
@@ -2224,16 +2218,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="18" t="s">
-        <v>44</v>
+      <c r="F7" s="15" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3">
         <v>2.96</v>
@@ -2243,13 +2237,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F8" s="18" t="s">
-        <v>44</v>
+      <c r="F8" s="15" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>5</v>
@@ -2262,13 +2256,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F9" s="18" t="s">
-        <v>44</v>
+      <c r="F9" s="15" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>6</v>
@@ -2281,13 +2275,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F10" s="18" t="s">
-        <v>44</v>
+      <c r="F10" s="15" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>7</v>
@@ -2300,8 +2294,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F11" s="19" t="s">
-        <v>44</v>
+      <c r="F11" s="16" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2314,8 +2308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="A1:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2328,252 +2322,252 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>83</v>
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="28">
+        <v>50</v>
+      </c>
+      <c r="C2" s="25">
         <v>13.404</v>
       </c>
       <c r="D2" s="11"/>
-      <c r="E2" s="28">
+      <c r="E2" s="25">
         <f>D2*C2/1.2</f>
         <v>0</v>
       </c>
-      <c r="F2" s="20" t="s">
-        <v>82</v>
+      <c r="F2" s="17" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="26">
+        <v>50</v>
+      </c>
+      <c r="C3" s="23">
         <v>5.3039999999999994</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="26">
+      <c r="E3" s="23">
         <f t="shared" ref="E3:E13" si="0">D3*C3/1.2</f>
         <v>0</v>
       </c>
-      <c r="F3" s="18" t="s">
-        <v>82</v>
+      <c r="F3" s="15" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="26">
+        <v>50</v>
+      </c>
+      <c r="C4" s="23">
         <v>15.23</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>82</v>
+      <c r="E4" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="26">
+        <v>50</v>
+      </c>
+      <c r="C5" s="23">
         <f>1.2*2.92</f>
         <v>3.504</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>82</v>
+      <c r="E5" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="26">
+        <v>75</v>
+      </c>
+      <c r="C6" s="23">
         <v>31.03</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>82</v>
+      <c r="E6" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="26">
+        <v>50</v>
+      </c>
+      <c r="C7" s="23">
         <v>23.2</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>82</v>
+      <c r="E7" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="26">
+        <v>50</v>
+      </c>
+      <c r="C8" s="23">
         <v>22.404</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>82</v>
+      <c r="E8" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="26">
+        <v>50</v>
+      </c>
+      <c r="C9" s="23">
         <v>9.4439999999999991</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>82</v>
+      <c r="E9" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="26">
+        <v>50</v>
+      </c>
+      <c r="C10" s="23">
         <v>4.056</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>82</v>
+      <c r="E10" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="23">
+        <v>2.48</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="15" t="s">
         <v>79</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="26">
-        <v>2.48</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="23">
+        <v>3.1559999999999997</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="23">
+        <f t="shared" ref="E12" si="1">D12*C12/1.2</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="15" t="s">
         <v>79</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="26">
-        <v>3.1559999999999997</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="26">
-        <f t="shared" ref="E12" si="1">D12*C12/1.2</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="27">
+        <v>50</v>
+      </c>
+      <c r="C13" s="24">
         <v>40</v>
       </c>
       <c r="D13" s="7"/>
-      <c r="E13" s="27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>82</v>
+      <c r="E13" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2586,449 +2580,447 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="35.5546875" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" customWidth="1"/>
     <col min="5" max="5" width="19.88671875" customWidth="1"/>
-    <col min="7" max="7" width="19.21875" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16" t="s">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>83</v>
+      <c r="C1" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="28">
+        <v>68</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="25">
         <v>0.9</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="37">
+      <c r="E2" s="32"/>
+      <c r="F2" s="34">
         <f>D2*E2/1.2</f>
         <v>0</v>
       </c>
-      <c r="G2" s="38"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="3" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="26">
+        <v>70</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="23">
         <v>0.9</v>
       </c>
       <c r="E3" s="14"/>
-      <c r="F3" s="31">
+      <c r="F3" s="28">
         <f>D3*E3/1.2</f>
         <v>0</v>
       </c>
-      <c r="G3" s="32"/>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="26">
+        <v>45</v>
+      </c>
+      <c r="D4" s="23">
         <v>0.5</v>
       </c>
-      <c r="E4" s="14">
-        <v>1</v>
-      </c>
-      <c r="F4" s="31">
+      <c r="E4" s="14"/>
+      <c r="F4" s="28">
         <f>D4*E4/1.2</f>
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>44</v>
+        <v>0</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="26">
+        <v>45</v>
+      </c>
+      <c r="D5" s="23">
         <v>0.56000000000000005</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="31">
+      <c r="F5" s="28">
         <f>D5*E5/1.2</f>
         <v>0</v>
       </c>
-      <c r="G5" s="18" t="s">
-        <v>44</v>
+      <c r="G5" s="15" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="26">
+        <v>45</v>
+      </c>
+      <c r="D6" s="23">
         <v>0.63</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="31">
+      <c r="F6" s="28">
         <f t="shared" ref="F6:F9" si="0">D6*E6/1.2</f>
         <v>0</v>
       </c>
-      <c r="G6" s="18" t="s">
-        <v>44</v>
+      <c r="G6" s="15" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="26">
+        <v>17</v>
+      </c>
+      <c r="D7" s="23">
         <v>13.9</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>43</v>
+      <c r="F7" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="26">
+        <v>17</v>
+      </c>
+      <c r="D8" s="23">
         <f>(7500*3.141*0.00062*0.00062*18)/0.45</f>
         <v>0.36222012000000009</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="31">
+      <c r="F8" s="28">
         <f>ROUNDUP(D8*E8/1.2,2)</f>
         <v>0</v>
       </c>
-      <c r="G8" s="18"/>
+      <c r="G8" s="15"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="26">
+        <v>45</v>
+      </c>
+      <c r="D9" s="23">
         <v>3.5</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>49</v>
+      <c r="E9" s="23"/>
+      <c r="F9" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="26">
+        <v>45</v>
+      </c>
+      <c r="D10" s="23">
         <v>5.23</v>
       </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="31">
+      <c r="E10" s="23"/>
+      <c r="F10" s="28">
         <f>D10*E10/1.2</f>
         <v>0</v>
       </c>
-      <c r="G10" s="18"/>
+      <c r="G10" s="15"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="26">
+        <v>20</v>
+      </c>
+      <c r="D11" s="23">
         <v>2.2000000000000002</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="31">
+      <c r="F11" s="28">
         <f>D11*E11/(100*1.2)</f>
         <v>0</v>
       </c>
-      <c r="G11" s="18" t="s">
-        <v>44</v>
+      <c r="G11" s="15" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="26">
+        <v>20</v>
+      </c>
+      <c r="D12" s="23">
         <v>9</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="31">
+      <c r="F12" s="28">
         <f t="shared" ref="F12:F13" si="1">D12*E12/(100*1.2)</f>
         <v>0</v>
       </c>
-      <c r="G12" s="18" t="s">
-        <v>44</v>
+      <c r="G12" s="15" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="26">
+        <v>20</v>
+      </c>
+      <c r="D13" s="23">
         <v>17.5</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="31">
+      <c r="F13" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G13" s="18" t="s">
-        <v>44</v>
+      <c r="G13" s="15" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="26">
+      <c r="D14" s="23">
         <v>2</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="31">
+      <c r="F14" s="28">
         <f>D14*E14/1.2</f>
         <v>0</v>
       </c>
-      <c r="G14" s="18" t="s">
-        <v>84</v>
+      <c r="G14" s="15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="26">
+        <v>45</v>
+      </c>
+      <c r="D15" s="23">
         <v>1.5</v>
       </c>
       <c r="E15" s="2"/>
-      <c r="F15" s="31">
+      <c r="F15" s="28">
         <f>D15*E15/1.2</f>
         <v>0</v>
       </c>
-      <c r="G15" s="18"/>
+      <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="26">
+        <v>45</v>
+      </c>
+      <c r="D16" s="23">
         <v>2.08</v>
       </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="31">
+      <c r="F16" s="28">
         <f t="shared" ref="F16:F19" si="2">D16*E16/(100*1.2)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="18" t="s">
-        <v>44</v>
+      <c r="G16" s="15" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="26">
+        <v>20</v>
+      </c>
+      <c r="D17" s="23">
         <v>2.02</v>
       </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="31">
+      <c r="F17" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G17" s="18" t="s">
-        <v>85</v>
+      <c r="G17" s="15" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="26">
+        <v>20</v>
+      </c>
+      <c r="D18" s="23">
         <v>6.13</v>
       </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="31">
+      <c r="F18" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G18" s="18" t="s">
-        <v>85</v>
+      <c r="G18" s="15" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>65</v>
-      </c>
       <c r="C19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="26">
+        <v>20</v>
+      </c>
+      <c r="D19" s="23">
         <v>20.04</v>
       </c>
-      <c r="E19" s="2">
-        <v>4</v>
-      </c>
-      <c r="F19" s="31">
+      <c r="E19" s="2"/>
+      <c r="F19" s="28">
         <f t="shared" si="2"/>
-        <v>0.66799999999999993</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>85</v>
+        <v>0</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" s="34"/>
+        <v>71</v>
+      </c>
+      <c r="B20" s="31"/>
       <c r="C20" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="27">
+        <v>45</v>
+      </c>
+      <c r="D20" s="24">
         <v>2.35</v>
       </c>
       <c r="E20" s="7"/>
-      <c r="F20" s="39">
+      <c r="F20" s="36">
         <f>D20*E20/1.2</f>
         <v>0</v>
       </c>
-      <c r="G20" s="19" t="s">
-        <v>43</v>
+      <c r="G20" s="16" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -3036,5 +3028,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>